--- a/week_plan/2021_feburary_weekplan.xlsx
+++ b/week_plan/2021_feburary_weekplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11835" activeTab="1"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>周计划</t>
   </si>
@@ -95,7 +95,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">7   </t>
     </r>
@@ -115,7 +114,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">7  </t>
     </r>
@@ -135,7 +133,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">8   </t>
     </r>
@@ -144,13 +141,18 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>联系日常</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">10   </t>
     </r>
     <r>
@@ -164,6 +166,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">10   </t>
     </r>
     <r>
@@ -182,7 +190,6 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -193,13 +200,18 @@
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Lidar深度图Filter</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">10   </t>
     </r>
     <r>
@@ -219,7 +231,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">12   </t>
     </r>
@@ -228,13 +239,18 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>联系日常</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">13   </t>
     </r>
     <r>
@@ -243,13 +259,18 @@
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Computer Architecture</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">15   </t>
     </r>
     <r>
@@ -269,7 +290,6 @@
         <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">19   </t>
     </r>
@@ -278,7 +298,6 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>联系日常</t>
     </r>
@@ -290,6 +309,9 @@
     <t>单字底图调整</t>
   </si>
   <si>
+    <t>Lidar 深度图优化实现</t>
+  </si>
+  <si>
     <t>面试</t>
   </si>
   <si>
@@ -308,6 +330,26 @@
     <t>深度图优化方程构造求解</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.25"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">深度图优化方程构造求解
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单字底图计算调整</t>
+    </r>
+  </si>
+  <si>
     <t>深度图优化性能调优</t>
   </si>
   <si>
@@ -315,25 +357,46 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">7   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <color theme="2" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>锻炼</t>
     </r>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">7   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.25"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锻炼</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">7  </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="0" tint="-0.25"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -342,6 +405,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">9   </t>
     </r>
     <r>
@@ -349,7 +418,6 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>汽车保养</t>
     </r>
@@ -361,113 +429,253 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <color theme="0" tint="-0.25"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高效能人士的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.25"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.25"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个习惯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深度图优化方程构造求解</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">深度图优化方程构造求解
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单字底图计算调整</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单字底图计算调整</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">单字底图计算调整
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深度图优化性能调优</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深度图优化性能调优</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">12   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陪伴时间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">14   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深度图优化性能调优</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">15  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 回杭州</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <charset val="134"/>
       </rPr>
       <t>高效能人士的7个习惯</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">10   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>深度图优化方程构造求解</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单字底图计算调整</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>深度图优化性能调优</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>陪伴时间</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>深度图优化性能调优</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 回杭州</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">20   </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>高效能人士的7个习惯</t>
-    </r>
-  </si>
-  <si>
-    <r>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高效能人士的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个习惯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">20   </t>
     </r>
     <r>
@@ -475,7 +683,6 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>其他安排</t>
     </r>
@@ -486,12 +693,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,16 +714,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.25"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,30 +781,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,29 +811,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -599,6 +819,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -607,7 +836,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,35 +864,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.25"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -657,11 +888,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="2" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="0" tint="-0.5"/>
@@ -673,14 +934,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -695,6 +954,180 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -704,181 +1137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,6 +1212,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -963,6 +1248,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1000,198 +1300,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1213,14 +1472,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1231,54 +1496,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1545,23 +1810,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.2761904761905" customWidth="1"/>
-    <col min="2" max="2" width="33.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="20.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="25.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="23.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="21.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="28.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="19.2734375" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.4296875" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.2890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1628,9 +1893,9 @@
       <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2"/>
@@ -1644,9 +1909,9 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2"/>
@@ -1660,9 +1925,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2"/>
@@ -1676,9 +1941,9 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4"/>
@@ -1690,9 +1955,9 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
@@ -1708,9 +1973,9 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2"/>
@@ -1722,9 +1987,9 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
@@ -1740,9 +2005,9 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2"/>
@@ -1756,9 +2021,9 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2"/>
@@ -1775,7 +2040,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" ht="17" spans="1:9">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1794,7 +2059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" ht="17" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1832,7 +2097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="1:9">
+    <row r="16" ht="34" spans="1:9">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1870,7 +2135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" ht="17" spans="1:9">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1927,7 +2192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" ht="17" spans="1:9">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2003,7 +2268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" ht="17" spans="1:9">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2066,31 +2331,31 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F12:I12"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509722222222222" footer="0.509722222222222"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="0" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="30.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="36.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="23.1428571428571" customWidth="1"/>
-    <col min="4" max="5" width="25.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="26.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="25.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="30.4296875" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2171,7 +2436,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2192,7 +2457,7 @@
     <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4"/>
     </row>
@@ -2208,13 +2473,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>2</v>
@@ -2231,36 +2496,36 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" ht="34" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2344,9 +2609,9 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" ht="17" spans="1:7">
       <c r="A29" s="8">
         <v>7</v>
       </c>
@@ -2354,22 +2619,22 @@
         <v>24</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" ht="17" spans="1:7">
       <c r="A30" s="8">
         <v>8</v>
       </c>
@@ -2392,7 +2657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" ht="17" spans="1:7">
       <c r="A31" s="8">
         <v>9</v>
       </c>
@@ -2409,27 +2674,27 @@
         <v>9</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>49</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" ht="34" spans="1:7">
       <c r="A32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F32" s="9">
         <v>10</v>
@@ -2461,7 +2726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" ht="17" spans="1:7">
       <c r="A34" s="8" t="s">
         <v>30</v>
       </c>
@@ -2478,10 +2743,10 @@
         <v>30</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2507,7 +2772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" ht="17" spans="1:7">
       <c r="A36" s="8">
         <v>14</v>
       </c>
@@ -2518,7 +2783,7 @@
         <v>14</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E36" s="8">
         <v>14</v>
@@ -2530,7 +2795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" ht="17" spans="1:7">
       <c r="A37" s="8">
         <v>15</v>
       </c>
@@ -2550,7 +2815,7 @@
         <v>15</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2599,7 +2864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" ht="17" spans="1:7">
       <c r="A40" s="8">
         <v>18</v>
       </c>
@@ -2618,11 +2883,11 @@
       <c r="F40" s="8">
         <v>18</v>
       </c>
-      <c r="G40" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="G40" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" ht="17" spans="1:7">
       <c r="A41" s="8" t="s">
         <v>33</v>
       </c>
@@ -2645,7 +2910,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" ht="17" spans="1:7">
       <c r="A42" s="8">
         <v>20</v>
       </c>
@@ -2661,11 +2926,11 @@
       <c r="E42" s="8">
         <v>20</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>54</v>
+      <c r="F42" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2692,74 +2957,74 @@
       </c>
     </row>
     <row r="70" spans="4:6">
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
     </row>
     <row r="71" spans="4:6">
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
     </row>
     <row r="72" spans="4:6">
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
     </row>
     <row r="73" spans="4:6">
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
     </row>
     <row r="74" spans="4:6">
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
     </row>
     <row r="75" spans="4:6">
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
     </row>
     <row r="76" spans="4:6">
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
     </row>
     <row r="77" spans="4:6">
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
     </row>
     <row r="78" spans="4:6">
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
     </row>
     <row r="79" spans="4:6">
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
     </row>
     <row r="80" spans="4:6">
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
     </row>
     <row r="81" spans="4:6">
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
     </row>
     <row r="82" spans="4:6">
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
     </row>
     <row r="83" spans="4:6">
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
